--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.999996969793755</v>
+        <v>0.9999467352230126</v>
       </c>
       <c r="E2">
-        <v>0.999996969793755</v>
+        <v>0.9999467352230126</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.5971339420226897</v>
+        <v>0.9998918169644847</v>
       </c>
       <c r="E3">
-        <v>0.5971339420226897</v>
+        <v>0.9998918169644847</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.0009984135034634323</v>
+        <v>0.2806800994624609</v>
       </c>
       <c r="E4">
-        <v>0.0009984135034634323</v>
+        <v>0.2806800994624609</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9004649653636392</v>
+        <v>0.5954755138490253</v>
       </c>
       <c r="E5">
-        <v>0.9004649653636392</v>
+        <v>0.5954755138490253</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2.341683564582987E-28</v>
+        <v>7.128983212896906E-06</v>
       </c>
       <c r="E6">
-        <v>2.341683564582987E-28</v>
+        <v>7.128983212896906E-06</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9950719961427364</v>
+        <v>0.6393701536904405</v>
       </c>
       <c r="E7">
-        <v>0.004928003857263552</v>
+        <v>0.3606298463095595</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.003824059706060934</v>
+        <v>0.0005819994459206901</v>
       </c>
       <c r="E8">
-        <v>0.9961759402939391</v>
+        <v>0.9994180005540793</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9625803178093344</v>
+        <v>0.995404981262248</v>
       </c>
       <c r="E9">
-        <v>0.0374196821906656</v>
+        <v>0.004595018737752032</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999964600157563</v>
+        <v>0.9999962901056528</v>
       </c>
       <c r="E11">
-        <v>3.539984243738914E-06</v>
+        <v>3.709894347170284E-06</v>
       </c>
       <c r="F11">
-        <v>2.153379678726196</v>
+        <v>2.810734272003174</v>
       </c>
       <c r="G11">
         <v>0.6</v>
